--- a/trunk/yipiao/static/download/学生导入模板.xlsx
+++ b/trunk/yipiao/static/download/学生导入模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="5180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -45,14 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +63,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -115,23 +114,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -156,14 +140,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,6 +448,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -496,15 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
@@ -513,7 +499,7 @@
     <col min="7" max="8" width="9.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,54 +526,39 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1 E1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536">
-      <formula1>"应届,往届"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B65536">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65536">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/trunk/yipiao/static/download/学生导入模板.xlsx
+++ b/trunk/yipiao/static/download/学生导入模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="5175"/>
+    <workbookView windowWidth="24000" windowHeight="9820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>姓名</t>
   </si>
@@ -30,23 +30,20 @@
     <t>班级</t>
   </si>
   <si>
-    <t>应届/往届</t>
-  </si>
-  <si>
-    <t>是否本地高考</t>
-  </si>
-  <si>
-    <t>毕业学校</t>
-  </si>
-  <si>
     <t>入学时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -66,11 +63,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,55 +93,58 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -448,7 +443,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -466,9 +460,7 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
+            <a:srgbClr val="739CC3"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -483,82 +475,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.5" style="2"/>
-    <col min="6" max="6" width="13.875" style="2"/>
-    <col min="7" max="8" width="9.5" style="2"/>
+    <col min="5" max="5" width="9.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>